--- a/report.xlsx
+++ b/report.xlsx
@@ -551,10 +551,10 @@
         <v>96000</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         <v>32500</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
@@ -601,7 +601,7 @@
         <v>128500</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>0</v>
+        <v>16650</v>
       </c>
     </row>
     <row r="8">

--- a/report.xlsx
+++ b/report.xlsx
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="F4" t="n">
         <v>96000</v>
@@ -577,7 +577,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="F5" t="n">
         <v>32500</v>
@@ -680,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="F10" t="n">
         <v>144000</v>
@@ -712,7 +712,7 @@
         <v>300</v>
       </c>
       <c r="E11" t="n">
-        <v>150</v>
+        <v>799</v>
       </c>
       <c r="F11" t="n">
         <v>239700</v>

--- a/report.xlsx
+++ b/report.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,16 @@
         <v>51980</v>
       </c>
     </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>По объекту</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>68630</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:H8"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FFEE"/>
+        <bgColor rgb="0000FFEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,7 +73,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -79,6 +85,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -740,12 +747,18 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>По объекту</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
+      <c r="H15" s="5" t="n">
         <v>68630</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -523,12 +523,12 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>кол-во выполненное</t>
+          <t>кол-во факт</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>сумма_заказчика</t>
+          <t>сумма факт</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>кол-во выполненное</t>
+          <t>кол-во факт</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>сумма_заказчика</t>
+          <t>сумма факт</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       <c r="A15" s="5" t="n"/>
       <c r="B15" s="5" t="inlineStr">
         <is>
-          <t>По объекту</t>
+          <t>ИТОГО по объекту</t>
         </is>
       </c>
       <c r="C15" s="5" t="n"/>
